--- a/biology/Botanique/Semis/Semis.xlsx
+++ b/biology/Botanique/Semis/Semis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le semis, appelé aussi semailles, est une opération culturale qui consiste à mettre en terre les graines ou semences que ce soit dans un champ ou une surface de petite dimension. Le semis peut se faire à la main, ou de manière mécanisée à l'aide de semoirs.
 Le terme semis désigne également les jeunes plantules issues de la germination des graines qui ont été semées.
@@ -512,7 +524,9 @@
           <t>Choix des semences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le choix des semences est important. L'utilisation des semences certifiées apporte une garantie sur la pureté spécifique, la pureté variétale, la faculté germinative et la qualité sanitaire des graines. Dans le cas d'utilisation de semences fermières il est recommandé d'observer l'état sanitaire des graines et de procéder à des tests de germination en suivant un protocole précis adapté à l'espèce.
 </t>
@@ -545,26 +559,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jardinage
-Semis en ligne, en réalisant un sillon dans lequel les graines sont placées en ligne à la main ou à l'aide d'un petit semoir uni-graine;
+          <t>Jardinage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Semis en ligne, en réalisant un sillon dans lequel les graines sont placées en ligne à la main ou à l'aide d'un petit semoir uni-graine;
 Semis en poquets, en plaçant plusieurs graines dans un trou réalisé à la main ou à l'aide d'un petit plantoir plutôt adapté aux grosses graines (haricots, courgettes...);
 Semis à la volée, plutôt adapté aux petites graines (gazon, mâche...).
 Semis en plateaux alvéolés
 Semis en mottes, à l'aide d'un presse-motte
 Boulette de graines, technique proche de la précédente, utilisée en milieu difficile
-Graines prépositionnées et collées sur rubans ou bandes.
-Agriculture
-Il existe de nombreux types de semoirs mécaniques ou pneumatiques permettant d'effectuer des semis.
-Semis en pépinière
-Le semis en pépinière en vue d'un repiquage permet de créer un grand nombre de plants rapidement dans des conditions plus favorables et dans un espace réduit.
-On utilise en général un terreau spécial pour semis mais à défaut, les particuliers peuvent utiliser de l'eau oxygénée pour stériliser les graines et le substrat utilisé afin d'éviter le développement de moisissures et la fonte des semis[1].
-Espaces verts
-Les semis de pelouses et plantes d'espaces verts peuvent se faire selon les techniques précitées. Certaines sont cependant particulières comme :
-l'engazonnement au moyen de plaques de gazon précultivées : on pose les plaques ou on déroule les rouleaux de gazon sur un sol préparé
-ensemencement hydraulique qui consiste à projeter une solution aqueuse contenant des graines d'espèces levant facilement sur un sol ou une surface peu préparée mais souvent inaccessible (fortes pentes, carrières, …)
-Forêts
-Voir Sylviculture#Semis direct
-</t>
+Graines prépositionnées et collées sur rubans ou bandes.</t>
         </is>
       </c>
     </row>
@@ -589,10 +596,162 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Différents types de semis</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe de nombreux types de semoirs mécaniques ou pneumatiques permettant d'effectuer des semis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Semis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Semis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Différents types de semis</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Semis en pépinière</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le semis en pépinière en vue d'un repiquage permet de créer un grand nombre de plants rapidement dans des conditions plus favorables et dans un espace réduit.
+On utilise en général un terreau spécial pour semis mais à défaut, les particuliers peuvent utiliser de l'eau oxygénée pour stériliser les graines et le substrat utilisé afin d'éviter le développement de moisissures et la fonte des semis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Semis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Semis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Différents types de semis</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espaces verts</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les semis de pelouses et plantes d'espaces verts peuvent se faire selon les techniques précitées. Certaines sont cependant particulières comme :
+l'engazonnement au moyen de plaques de gazon précultivées : on pose les plaques ou on déroule les rouleaux de gazon sur un sol préparé
+ensemencement hydraulique qui consiste à projeter une solution aqueuse contenant des graines d'espèces levant facilement sur un sol ou une surface peu préparée mais souvent inaccessible (fortes pentes, carrières, …)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Semis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Semis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Différents types de semis</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Forêts</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir Sylviculture#Semis direct
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Semis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Semis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Date et calendrier de semis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les périodes et les dates les plus favorables pour semer peuvent varier selon de nombreux facteurs :
 les espèces et variétés
@@ -606,31 +765,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Semis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Semis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Semis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Semis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Préparation du sol</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour bien réussir l'implantation d'une culture, il est généralement nécessaire de réaliser des opérations qui permettront aux semences d'être dans des conditions optimales pour germer rapidement et trouver dans le sol les éléments nécessaires à leur croissance. D'une manière générale le sol doit être meuble en profondeur pour permettre aux racines de se développer facilement, de respirer et d'occuper un volume suffisant pour récupérer l'eau et les substances minérales nécessaires. En surface, le sol doit être d'autant plus fin que les graines sont de petites dimensions afin de faciliter leur contact avec la terre.    
 En agriculture, les semis sont généralement effectués après un labour suivi de différentes opérations culturales (par exemple hersage, roulage, apports d'amendements, de fumiers, d'engrais, etc.). D'autres techniques simplifiées sont possibles telles que le semis direct, c'est-à-dire sans labour, et le semis direct sous couvert qui consiste à implanter la culture par semis direct alors que le couvert d'interculture n'est pas encore détruit. Des semoirs spéciaux sont de préférence utilisés dans ce type de situation.
@@ -639,31 +800,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Semis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Semis</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Semis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Semis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Densité de semis</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les doses et densité de semis doivent être choisies selon de nombreux facteurs :
 les espèces et variétés
@@ -676,31 +839,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Semis</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Semis</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Semis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Semis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article est partiellement ou en totalité issu de l'article intitulé « Semis (germination) » (voir la liste des auteurs)..</t>
